--- a/biology/Botanique/Persicarieae/Persicarieae.xlsx
+++ b/biology/Botanique/Persicarieae/Persicarieae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Persicarieae sont une tribu de plantes à fleurs de la famille des Polygonaceae, sous-famille des Polygonoideae. Elle comprend quatre genres. Persicaria est le genre type.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (14 mai 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (14 mai 2021) :
 Aconogonon (Meisn.) Rchb.
 Aconogonum Rchb. (synonyme de Aconogonon (Meisn.) Rchb.)
 Amblygonum (Meisn.) Rchb. (synonyme de Persicaria (L.) Mill.)
@@ -525,15 +539,15 @@
 Pleuropteropyrum H. Gross (synonyme de Koenigia L.)
 Rubrivena M. Král (synonyme de Koenigia L.)
 Tovara Adans. (synonyme de Persicaria (L.) Mill.)
-Selon The Taxonomicon  (14 mai 2021)[3] :
+Selon The Taxonomicon  (14 mai 2021) :
 Fagopyrum Mill., 1754
 Koenigia C. L., 1767
 Persicaria (C. L.) P. Mill., 1754
-Selon l'INPN      (14 mai 2021)[1] (taxons recensés en France uniquement) :
+Selon l'INPN      (14 mai 2021) (taxons recensés en France uniquement) :
 Bistorta (L.) Scop., 1754
 Koenigia L., 1767
 Persicaria (L.) Mill., 1754
-Selon la Base de données des plantes vasculaires du Canada[4] (taxons recensés au Canada uniquement)
+Selon la Base de données des plantes vasculaires du Canada (taxons recensés au Canada uniquement)
 Bistorta
 Fagopyrum
 Koenigia
